--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_10_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1397141.168730119</v>
+        <v>1380687.312553975</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9608312.673065295</v>
+        <v>9070074.669001013</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3583959.828902249</v>
+        <v>3049733.399352011</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9859222.284068268</v>
+        <v>10063575.22042523</v>
       </c>
     </row>
     <row r="11">
@@ -667,67 +667,67 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>140.0417524496013</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="G2" t="n">
+        <v>16.97940549761056</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.097100052852173</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>222.6908602868995</v>
+      </c>
+      <c r="U2" t="n">
+        <v>251.3382516189322</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>206.909162189371</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>144.0576027644702</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>94.89462762832555</v>
       </c>
       <c r="T3" t="n">
-        <v>43.51894653638487</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>142.3870695882587</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -901,67 +901,67 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.097100052852178</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>205.6802163062329</v>
+      </c>
+      <c r="X5" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="F5" t="n">
-        <v>227.7664834517757</v>
-      </c>
-      <c r="G5" t="n">
-        <v>263.2420339516666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>4.097100052852174</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>263.2420339516666</v>
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>59.29547004092755</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>41.8853456695994</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
         <v>159.8350691069748</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>235.0485843736662</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>403.5404394245668</v>
       </c>
       <c r="G8" t="n">
-        <v>414.5187018193981</v>
+        <v>14.72112140972979</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>63.5532153176727</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>108.1839952529997</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>74.95345641161043</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.11227928871006</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.4738651090661</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>2.823052819462366</v>
+        <v>132.4024281370452</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>58.24383193470695</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.1003160489209</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.8646757300426</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>85.17289288835127</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>24.26938334575257</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>74.75769145492379</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>37.84125266805142</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>227.7172236952942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.75769145492337</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,10 +1827,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>174.7756306538741</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>318.4685234071055</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>138.0518377514968</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>104.0438938896185</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>157.7822070347161</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>40.92686164700685</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>227.7172236952942</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>123.368206244481</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>98.50090852733777</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2301,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>114.4746605491556</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>189.2458762457963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.67167320902141</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247738</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>39.47168301525367</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471491</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>127.9088125758337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>27.01258106879461</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>233.7508377871187</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3046,10 +3046,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>184.1477353216911</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.7272877477051</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,19 +3268,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>101.8907566840639</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>126.7498226612781</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>74.75769145492379</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>80.7516796063758</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>279.2782602710876</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>14.31259208839359</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>95.09798706465436</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>155.0066413629178</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>25.87859906451798</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>274.8735849357818</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3915,10 +3915,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>203.1977700471494</v>
+        <v>31.83188548727787</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>12.87606160420883</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3994,10 +3994,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>218.1690567639041</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>88.23797643592245</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>206.5922292904583</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>907.4554057415451</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="C2" t="n">
-        <v>907.4554057415451</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="D2" t="n">
-        <v>907.4554057415451</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="E2" t="n">
-        <v>765.9990901358872</v>
+        <v>308.2498066576781</v>
       </c>
       <c r="F2" t="n">
-        <v>500.0980457402644</v>
+        <v>42.34876226205529</v>
       </c>
       <c r="G2" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="H2" t="n">
-        <v>234.1970013446416</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
         <v>25.19784761800421</v>
@@ -4342,7 +4342,7 @@
         <v>563.3128681098021</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369328</v>
+        <v>785.5101925369327</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4354,28 +4354,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T2" t="n">
-        <v>907.4554057415451</v>
+        <v>828.0278728906062</v>
       </c>
       <c r="U2" t="n">
-        <v>907.4554057415451</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="V2" t="n">
-        <v>907.4554057415451</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="W2" t="n">
-        <v>907.4554057415451</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="X2" t="n">
-        <v>907.4554057415451</v>
+        <v>574.1508510533009</v>
       </c>
       <c r="Y2" t="n">
-        <v>907.4554057415451</v>
+        <v>308.2498066576781</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>530.6955846207953</v>
+        <v>788.8996395660675</v>
       </c>
       <c r="C3" t="n">
-        <v>530.6955846207953</v>
+        <v>614.4466102849406</v>
       </c>
       <c r="D3" t="n">
-        <v>381.7611749595441</v>
+        <v>465.5122006236894</v>
       </c>
       <c r="E3" t="n">
-        <v>222.5237199540885</v>
+        <v>306.2747456182339</v>
       </c>
       <c r="F3" t="n">
-        <v>222.5237199540885</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
@@ -4412,49 +4412,49 @@
         <v>24.95018035683209</v>
       </c>
       <c r="K3" t="n">
-        <v>99.34055552906347</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9440834239259</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M3" t="n">
-        <v>600.5536970360758</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360758</v>
+        <v>679.4402777642121</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>782.4144152406835</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="T3" t="n">
-        <v>738.4558833857493</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="U3" t="n">
-        <v>738.4558833857493</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="V3" t="n">
-        <v>738.4558833857493</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="W3" t="n">
-        <v>738.4558833857493</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="X3" t="n">
-        <v>738.4558833857493</v>
+        <v>957.1149765861355</v>
       </c>
       <c r="Y3" t="n">
-        <v>530.6955846207953</v>
+        <v>957.1149765861355</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052.968135806666</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="C4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="D4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="E4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="F4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="G4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="H4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="I4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="J4" t="n">
-        <v>891.5185710521463</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="K4" t="n">
-        <v>891.5185710521463</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L4" t="n">
-        <v>924.9408477296159</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M4" t="n">
-        <v>970.5690754315369</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N4" t="n">
-        <v>1020.546982284663</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O4" t="n">
-        <v>1050.693372907661</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="S4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="T4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="U4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="V4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="W4" t="n">
-        <v>1052.968135806666</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>1052.968135806666</v>
+        <v>38.68360465423048</v>
       </c>
       <c r="Y4" t="n">
-        <v>1052.968135806666</v>
+        <v>38.68360465423048</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.0670914110435</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="C5" t="n">
-        <v>787.0670914110435</v>
+        <v>313.4082527667006</v>
       </c>
       <c r="D5" t="n">
-        <v>787.0670914110435</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="E5" t="n">
-        <v>521.1660470154206</v>
+        <v>47.50720837107777</v>
       </c>
       <c r="F5" t="n">
-        <v>291.0988920136271</v>
+        <v>40.56170762187429</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800422</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800422</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800421</v>
+        <v>25.19784761800422</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
@@ -4573,7 +4573,7 @@
         <v>135.7250809573682</v>
       </c>
       <c r="L5" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M5" t="n">
         <v>563.3128681098023</v>
@@ -4606,13 +4606,13 @@
         <v>1052.968135806666</v>
       </c>
       <c r="W5" t="n">
-        <v>1052.968135806666</v>
+        <v>845.2103415579463</v>
       </c>
       <c r="X5" t="n">
-        <v>1052.968135806666</v>
+        <v>579.3092971623234</v>
       </c>
       <c r="Y5" t="n">
-        <v>787.0670914110435</v>
+        <v>313.4082527667006</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>308.3986281359331</v>
+        <v>503.6842566639671</v>
       </c>
       <c r="C6" t="n">
-        <v>133.9455988548061</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="D6" t="n">
-        <v>133.9455988548061</v>
+        <v>180.2968177215888</v>
       </c>
       <c r="E6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
         <v>21.05936271613333</v>
@@ -4646,7 +4646,7 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683209</v>
+        <v>24.95018035683208</v>
       </c>
       <c r="K6" t="n">
         <v>158.2210505399122</v>
@@ -4655,43 +4655,43 @@
         <v>398.8245784347747</v>
       </c>
       <c r="M6" t="n">
-        <v>659.4341920469246</v>
+        <v>398.8245784347747</v>
       </c>
       <c r="N6" t="n">
-        <v>860.9667611285679</v>
+        <v>524.9036321565281</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285679</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>954.9030226480426</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="U6" t="n">
-        <v>726.6826938902474</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="V6" t="n">
-        <v>726.6826938902474</v>
+        <v>817.8160275749237</v>
       </c>
       <c r="W6" t="n">
-        <v>726.6826938902474</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="X6" t="n">
-        <v>684.3742639209551</v>
+        <v>563.5786708467222</v>
       </c>
       <c r="Y6" t="n">
-        <v>476.6139651560011</v>
+        <v>563.5786708467222</v>
       </c>
     </row>
     <row r="7">
@@ -4764,7 +4764,7 @@
         <v>182.5089274706534</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="X7" t="n">
         <v>21.05936271613333</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1848.131048884478</v>
+        <v>823.7321771795253</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.708236385825</v>
+        <v>454.7696602391135</v>
       </c>
       <c r="D8" t="n">
-        <v>1252.442537779075</v>
+        <v>454.7696602391135</v>
       </c>
       <c r="E8" t="n">
-        <v>866.6542851808306</v>
+        <v>454.7696602391135</v>
       </c>
       <c r="F8" t="n">
-        <v>455.668380391223</v>
+        <v>47.15305475975302</v>
       </c>
       <c r="G8" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="H8" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="I8" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="J8" t="n">
-        <v>91.01143365136454</v>
+        <v>69.32373921977705</v>
       </c>
       <c r="K8" t="n">
-        <v>292.7613973875666</v>
+        <v>245.582657301964</v>
       </c>
       <c r="L8" t="n">
-        <v>595.3266948966796</v>
+        <v>516.5240586048254</v>
       </c>
       <c r="M8" t="n">
-        <v>948.5954319400589</v>
+        <v>834.6051178462881</v>
       </c>
       <c r="N8" t="n">
-        <v>1292.948428934081</v>
+        <v>1143.201063623974</v>
       </c>
       <c r="O8" t="n">
-        <v>1572.923561463523</v>
+        <v>1389.411826640426</v>
       </c>
       <c r="P8" t="n">
-        <v>1774.201476716247</v>
+        <v>1561.872633680111</v>
       </c>
       <c r="Q8" t="n">
-        <v>1848.131048884478</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="R8" t="n">
-        <v>1848.131048884478</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="S8" t="n">
-        <v>1848.131048884478</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="T8" t="n">
-        <v>1848.131048884478</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="U8" t="n">
-        <v>1848.131048884478</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="V8" t="n">
-        <v>1848.131048884478</v>
+        <v>1549.966590710719</v>
       </c>
       <c r="W8" t="n">
-        <v>1848.131048884478</v>
+        <v>1197.197935440605</v>
       </c>
       <c r="X8" t="n">
-        <v>1848.131048884478</v>
+        <v>823.7321771795253</v>
       </c>
       <c r="Y8" t="n">
-        <v>1848.131048884478</v>
+        <v>823.7321771795253</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>704.5748398392709</v>
+        <v>661.4426870749141</v>
       </c>
       <c r="C9" t="n">
-        <v>530.1218105581439</v>
+        <v>486.9896577937872</v>
       </c>
       <c r="D9" t="n">
-        <v>381.1874008968927</v>
+        <v>338.0552481325359</v>
       </c>
       <c r="E9" t="n">
-        <v>221.9499458914372</v>
+        <v>178.8177931270804</v>
       </c>
       <c r="F9" t="n">
-        <v>221.9499458914372</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="G9" t="n">
-        <v>221.9499458914372</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="H9" t="n">
-        <v>112.6731830096193</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="I9" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="J9" t="n">
-        <v>75.46034385169219</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="K9" t="n">
-        <v>75.46034385169219</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="L9" t="n">
-        <v>395.5966159819527</v>
+        <v>252.7341398800024</v>
       </c>
       <c r="M9" t="n">
-        <v>663.678220281491</v>
+        <v>651.1299381154665</v>
       </c>
       <c r="N9" t="n">
-        <v>1116.211775346744</v>
+        <v>1050.634973145788</v>
       </c>
       <c r="O9" t="n">
-        <v>1463.775890374246</v>
+        <v>1372.688487426244</v>
       </c>
       <c r="P9" t="n">
-        <v>1725.723666800062</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="Q9" t="n">
-        <v>1848.131048884478</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="R9" t="n">
-        <v>1773.270160714064</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="S9" t="n">
-        <v>1773.270160714064</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="T9" t="n">
-        <v>1572.791509088745</v>
+        <v>1614.161757698267</v>
       </c>
       <c r="U9" t="n">
-        <v>1569.939940584237</v>
+        <v>1480.421931297212</v>
       </c>
       <c r="V9" t="n">
-        <v>1334.787832352494</v>
+        <v>1245.269823065469</v>
       </c>
       <c r="W9" t="n">
-        <v>1080.550475624293</v>
+        <v>1245.269823065469</v>
       </c>
       <c r="X9" t="n">
-        <v>1080.550475624293</v>
+        <v>1037.418322859936</v>
       </c>
       <c r="Y9" t="n">
-        <v>872.790176859339</v>
+        <v>829.6580240949822</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>256.5021643954955</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="C10" t="n">
-        <v>197.6700109260945</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="D10" t="n">
-        <v>197.6700109260945</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="E10" t="n">
-        <v>197.6700109260945</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="F10" t="n">
-        <v>197.6700109260945</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="G10" t="n">
-        <v>197.6700109260945</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="H10" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="I10" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="J10" t="n">
-        <v>36.96262097768956</v>
+        <v>32.28323515396535</v>
       </c>
       <c r="K10" t="n">
-        <v>55.36737139569946</v>
+        <v>40.24434673963786</v>
       </c>
       <c r="L10" t="n">
-        <v>134.445549999924</v>
+        <v>105.9582632574738</v>
       </c>
       <c r="M10" t="n">
-        <v>228.2115248537976</v>
+        <v>185.6334975490632</v>
       </c>
       <c r="N10" t="n">
-        <v>325.1825708247579</v>
+        <v>268.8488492739565</v>
       </c>
       <c r="O10" t="n">
-        <v>398.7347314830498</v>
+        <v>329.6953998723749</v>
       </c>
       <c r="P10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="Q10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="R10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="S10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="T10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="U10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="V10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="W10" t="n">
-        <v>438.1506292257351</v>
+        <v>358.2394532468743</v>
       </c>
       <c r="X10" t="n">
-        <v>438.1506292257351</v>
+        <v>213.9316999842051</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.1506292257351</v>
+        <v>213.9316999842051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939214</v>
+        <v>1661.138951213863</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324635</v>
+        <v>1302.873252607112</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>917.0850000088678</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>506.0990952192603</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>91.02664506425674</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>91.02664506425674</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
@@ -5071,22 +5071,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1661.138951213863</v>
       </c>
     </row>
     <row r="12">
@@ -5096,70 +5096,70 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>2085.807325826218</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1716.844808885807</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1358.579110279056</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>972.790857680812</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>561.8049528912045</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>146.732502736201</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>2961.784676410101</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W14" t="n">
-        <v>2961.784676410101</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X14" t="n">
-        <v>2961.784676410101</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2472.40716589034</v>
       </c>
     </row>
     <row r="15">
@@ -5348,37 +5348,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.5121164321834</v>
+        <v>482.8906159540807</v>
       </c>
       <c r="C16" t="n">
-        <v>66.5121164321834</v>
+        <v>313.9544330261738</v>
       </c>
       <c r="D16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O16" t="n">
         <v>1617.076751502319</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T16" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251686</v>
+        <v>703.6831950976108</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271513</v>
+        <v>703.6831950976108</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836212</v>
+        <v>482.8906159540807</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1734.047335491681</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.084818551269</v>
+        <v>1132.251444816073</v>
       </c>
       <c r="D17" t="n">
-        <v>1006.819119944519</v>
+        <v>773.9857462093221</v>
       </c>
       <c r="E17" t="n">
-        <v>621.0308673462746</v>
+        <v>388.1974936110778</v>
       </c>
       <c r="F17" t="n">
-        <v>621.0308673462746</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G17" t="n">
-        <v>205.9584171912711</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912101</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5530,37 +5530,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792694</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W17" t="n">
-        <v>2884.252265792694</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X17" t="n">
-        <v>2510.786507531614</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y17" t="n">
-        <v>2120.647175555803</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="18">
@@ -5591,16 +5591,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5609,13 +5609,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>848.0708164780106</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="C19" t="n">
-        <v>679.1346335501037</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="D19" t="n">
-        <v>529.0179941377679</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="E19" t="n">
-        <v>381.1049005553748</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="F19" t="n">
-        <v>234.2149530574644</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088492</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.918581386758</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.501411349798</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.51186045178</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.71928130825</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U20" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V20" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W20" t="n">
-        <v>2961.784676410101</v>
+        <v>2383.403777160848</v>
       </c>
       <c r="X20" t="n">
-        <v>2961.784676410101</v>
+        <v>2009.938018899768</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>1619.798686923957</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>749.2621142610717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C22" t="n">
-        <v>749.2621142610717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D22" t="n">
-        <v>749.2621142610717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1735.608663915319</v>
+        <v>1737.96822364669</v>
       </c>
       <c r="T22" t="n">
-        <v>1513.842048484845</v>
+        <v>1516.201608216216</v>
       </c>
       <c r="U22" t="n">
-        <v>1224.739181610489</v>
+        <v>1227.09874134186</v>
       </c>
       <c r="V22" t="n">
-        <v>970.0546934046018</v>
+        <v>972.4142531359726</v>
       </c>
       <c r="W22" t="n">
-        <v>970.0546934046018</v>
+        <v>682.9970830990119</v>
       </c>
       <c r="X22" t="n">
-        <v>970.0546934046018</v>
+        <v>455.0075322009945</v>
       </c>
       <c r="Y22" t="n">
-        <v>749.2621142610717</v>
+        <v>234.2149530574645</v>
       </c>
     </row>
     <row r="23">
@@ -5977,49 +5977,49 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551634</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074199</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972664</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107238</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
         <v>4208.252829604875</v>
@@ -6065,7 +6065,7 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390118</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3253.908310316601</v>
+        <v>211.1920047000667</v>
       </c>
       <c r="C25" t="n">
-        <v>3084.972127388694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>3084.972127388694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>3084.972127388694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>3084.972127388694</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763413</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210349</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159225</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607721</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.09595020727</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913135</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833548</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267207</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.051722419722</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.051722419722</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246548</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816074</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941717</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V25" t="n">
-        <v>3884.338905188388</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W25" t="n">
-        <v>3884.338905188388</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X25" t="n">
-        <v>3656.349354290371</v>
+        <v>613.6330486738366</v>
       </c>
       <c r="Y25" t="n">
-        <v>3435.556775146841</v>
+        <v>392.8404695303064</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2021.490197783757</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>1652.527680843345</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1294.261982236595</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>908.4737296383507</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>497.4878248487432</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>82.41537469373965</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>82.41537469373965</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>316.1655996186213</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>970.8889317539208</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1835.407747407276</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2368.9396520792</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N26" t="n">
-        <v>2915.718469137983</v>
+        <v>3348.500285847604</v>
       </c>
       <c r="O26" t="n">
-        <v>3418.690940017319</v>
+        <v>3851.472756726941</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.465306374498</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4061.75166813018</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4120.768734686982</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4061.504418314234</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>3855.526670698456</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>3855.526670698456</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3524.463783354885</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3171.695128084771</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>2798.229369823691</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2408.090037847879</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>957.4471127426648</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>782.9940834615378</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>634.0596738002865</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>474.822218794831</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>328.287660821716</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>191.9245606543341</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>101.4226662922017</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>176.092644184357</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>414.3568431647041</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>781.0550034773695</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.331328699685</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1701.85437225414</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2112.815651672195</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2423.315243148298</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2580.956800794897</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2580.812447387413</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2451.374560880893</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2258.731560558748</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2030.663713693164</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1795.511605461421</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1541.27424873322</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1333.422748527687</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1125.662449762733</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1107.516938703364</v>
+        <v>974.4454116758762</v>
       </c>
       <c r="C28" t="n">
-        <v>938.5807557754569</v>
+        <v>805.5092287479694</v>
       </c>
       <c r="D28" t="n">
-        <v>788.4641163631211</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E28" t="n">
-        <v>640.551022780728</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F28" t="n">
-        <v>493.6610752828176</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G28" t="n">
-        <v>325.9582386575365</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7410518753943</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>127.5380071406752</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>331.5251900895516</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>648.0849885380477</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>992.2420341375966</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>1333.650410843461</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1632.980009763875</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>1865.587510197534</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1943.197806350049</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1943.197806350049</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1943.197806350049</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1943.197806350049</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U28" t="n">
-        <v>1943.197806350049</v>
+        <v>1604.876006547663</v>
       </c>
       <c r="V28" t="n">
-        <v>1943.197806350049</v>
+        <v>1604.876006547663</v>
       </c>
       <c r="W28" t="n">
-        <v>1737.947533575151</v>
+        <v>1604.876006547663</v>
       </c>
       <c r="X28" t="n">
-        <v>1509.957982677133</v>
+        <v>1376.886455649646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1289.165403533603</v>
+        <v>1156.093876506116</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1716.933368957438</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>1347.970852017026</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1218.770031233355</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>832.9817786351113</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>421.9958738455037</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>421.9958738455037</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>124.4122734542709</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>271.2945056527651</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>926.0178377880646</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1377.052051036474</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M29" t="n">
-        <v>1910.583955708398</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N29" t="n">
-        <v>2457.362772767181</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O29" t="n">
-        <v>2960.335243646517</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>3673.690331093463</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>3996.692412455927</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4120.768734686982</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4010.478066214077</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>3804.5003185983</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>3550.969841872136</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3219.906954528565</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>2867.138299258451</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>2493.672540997371</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2103.533209021559</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>957.4471127426641</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>782.9940834615371</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>634.059673800286</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>474.8222187948304</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>328.2876608217155</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>191.9245606543342</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>101.4226662922016</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>176.0926441843573</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>414.3568431647042</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>781.0550034773693</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.331328699685</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1701.854372254139</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.815651672194</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2423.315243148297</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2580.956800794897</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2580.812447387412</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2451.374560880892</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2258.731560558748</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2030.663713693163</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
-        <v>1795.511605461421</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1541.274248733219</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1333.422748527686</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1125.662449762732</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>740.4701100344878</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>571.5339271065809</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>544.248491683556</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>396.3353981011629</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>396.3353981011629</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>228.6325614758819</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>82.41537469373965</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>127.5380071406752</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>331.5251900895516</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>648.0849885380477</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>992.2420341375966</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1333.650410843461</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1632.980009763875</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>1865.587510197534</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1943.197806350049</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1943.197806350049</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1943.197806350049</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1721.431190919575</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1432.328324045218</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1432.328324045218</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W31" t="n">
-        <v>1142.911154008258</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X31" t="n">
-        <v>1142.911154008258</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y31" t="n">
-        <v>922.1185748647275</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.624422581789</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060171</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>3018.302393296686</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.605821609171</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.605821609171</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.605821609171</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3139.598008152917</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>2786.829352882803</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>2413.363594621723</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2023.224262645911</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1878.998343644816</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>1710.062160716909</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>1710.062160716909</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134516</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399797</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102583</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456656</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>3036.502954734814</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>2781.818466528927</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>2492.401296491967</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>2264.411745593949</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>2060.646808475055</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796265</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C35" t="n">
-        <v>552.8079389392149</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D35" t="n">
-        <v>194.5422403324644</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>66.51211643218343</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218343</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
         <v>66.51211643218343</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450754</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X35" t="n">
-        <v>1698.50962791956</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y35" t="n">
-        <v>1308.370295943748</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>142.0249360836216</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C37" t="n">
-        <v>142.0249360836216</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>142.0249360836216</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>142.0249360836216</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>142.0249360836216</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G37" t="n">
-        <v>142.0249360836216</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H37" t="n">
-        <v>142.0249360836216</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218343</v>
@@ -7131,16 +7131,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V37" t="n">
-        <v>880.2242361621296</v>
+        <v>1053.341371230263</v>
       </c>
       <c r="W37" t="n">
-        <v>590.8070661251691</v>
+        <v>1053.341371230263</v>
       </c>
       <c r="X37" t="n">
-        <v>362.8175152271517</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="Y37" t="n">
-        <v>142.0249360836216</v>
+        <v>825.3518203322459</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1514.348043559525</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C38" t="n">
-        <v>1145.385526619114</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D38" t="n">
-        <v>863.2862738200351</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E38" t="n">
-        <v>477.498021221791</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218342</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218342</v>
+        <v>378.5528805490663</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>80.96928015783351</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W38" t="n">
-        <v>2277.953133796417</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X38" t="n">
-        <v>1904.487375535337</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y38" t="n">
-        <v>1514.348043559525</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.51211643218342</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>629.1078027362229</v>
+        <v>628.5134590629166</v>
       </c>
       <c r="C40" t="n">
-        <v>460.171619808316</v>
+        <v>459.5772761350097</v>
       </c>
       <c r="D40" t="n">
-        <v>310.0549803959803</v>
+        <v>309.4606367226739</v>
       </c>
       <c r="E40" t="n">
-        <v>310.0549803959803</v>
+        <v>309.4606367226739</v>
       </c>
       <c r="F40" t="n">
-        <v>310.0549803959803</v>
+        <v>162.5706892247636</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
         <v>66.51211643218342</v>
@@ -7356,28 +7356,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T40" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U40" t="n">
-        <v>1705.527932658019</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V40" t="n">
-        <v>1548.955567644971</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W40" t="n">
-        <v>1259.53839760801</v>
+        <v>1258.944053934704</v>
       </c>
       <c r="X40" t="n">
-        <v>1031.548846709993</v>
+        <v>1030.954503036686</v>
       </c>
       <c r="Y40" t="n">
-        <v>810.7562675664626</v>
+        <v>810.1619238931563</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1616.654488422266</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="C41" t="n">
-        <v>1247.691971481854</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="D41" t="n">
-        <v>889.4262728751039</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E41" t="n">
-        <v>503.6380202768597</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F41" t="n">
-        <v>92.6521154872521</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G41" t="n">
-        <v>92.6521154872521</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
         <v>589.2106210810553</v>
@@ -7420,43 +7420,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>3119.628073993394</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>3119.628073993394</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W41" t="n">
-        <v>2766.859418723279</v>
+        <v>2353.071703272813</v>
       </c>
       <c r="X41" t="n">
-        <v>2393.393660462199</v>
+        <v>1979.605945011733</v>
       </c>
       <c r="Y41" t="n">
-        <v>2003.254328486388</v>
+        <v>1589.466613035921</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V43" t="n">
-        <v>1927.294548088493</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W43" t="n">
-        <v>1722.044275313594</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X43" t="n">
-        <v>1494.054724415577</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.167438673965</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C44" t="n">
-        <v>1976.204921733553</v>
+        <v>905.5765942093287</v>
       </c>
       <c r="D44" t="n">
-        <v>1617.939223126803</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E44" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
         <v>66.51211643218342</v>
@@ -7651,10 +7651,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001389</v>
@@ -7675,25 +7675,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W44" t="n">
-        <v>3105.233036999167</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X44" t="n">
-        <v>2731.767278738087</v>
+        <v>2051.278283189674</v>
       </c>
       <c r="Y44" t="n">
-        <v>2731.767278738087</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>452.6479724696239</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="C46" t="n">
-        <v>452.6479724696239</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D46" t="n">
-        <v>302.5313330572882</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
         <v>66.51211643218342</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X46" t="n">
-        <v>452.6479724696239</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="Y46" t="n">
-        <v>452.6479724696239</v>
+        <v>382.1280466398576</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>204.9899895268728</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M3" t="n">
         <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>381.709495280812</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>237.7646974507862</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093848</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>322.0357129267649</v>
+        <v>245.8200408460681</v>
       </c>
       <c r="O6" t="n">
-        <v>130.8188201934042</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>97.43680222350164</v>
       </c>
       <c r="K9" t="n">
-        <v>70.10202152413126</v>
+        <v>87.59074710657163</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>293.6638047845407</v>
       </c>
       <c r="M9" t="n">
-        <v>306.6327939880464</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>453.9462855473949</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>100.2583817368327</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400264</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.3243373392487</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>226.7688596193111</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>381.817657018402</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>75.47042384523425</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,19 +10351,19 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>296.7574771839105</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>17.30754642717338</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>91.26811680410444</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>256.766511719269</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23548,22 +23548,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.5207149607594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270139</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>111.7473676827169</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>88.40752233460597</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>156.5559266358237</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>41.37715413331279</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>94.35543628911191</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>308.3141070704062</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>158.5207149607594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>23.06575640208817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>91.26811680410412</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>52.77216054947225</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>62.89176707803171</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>50.51608857915442</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>246.7401551903592</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944187</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>226.7742290448492</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>121.6028919494177</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>52.77216054947226</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>143.6045231484438</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.85736560438968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>263.3821350869437</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>255.1805474109837</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>21.5947289549143</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>171.3859637174522</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>75.4047813495954</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>27.26433768453236</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>70.92782119437386</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>97.1310019609102</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>268.7291653228025</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>74.36738378163125</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>83.32522828944164</v>
+        <v>254.6911128493131</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>341.8069800164741</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>131.0719119535089</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>58.19598621064672</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>19.11742609857882</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1009770.689999726</v>
+        <v>1009087.151405007</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>773342.912334695</v>
+        <v>773342.9123346951</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>773342.912334695</v>
+        <v>773342.9123346951</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>928145.1772747319</v>
+        <v>928145.1772747318</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>858091.693595374</v>
+        <v>928145.177274732</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>858091.6935953739</v>
+        <v>928145.1772747318</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>773342.9123346949</v>
+        <v>928145.1772747319</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>773342.912334695</v>
+        <v>773342.9123346951</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>773342.9123346951</v>
+        <v>773342.912334695</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651767</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136507</v>
       </c>
       <c r="F2" t="n">
-        <v>426246.3737136507</v>
+        <v>426246.3737136508</v>
       </c>
       <c r="G2" t="n">
         <v>426246.3737136507</v>
@@ -26334,22 +26334,22 @@
         <v>426246.3737136506</v>
       </c>
       <c r="I2" t="n">
-        <v>496352.233608729</v>
+        <v>496352.2336087288</v>
       </c>
       <c r="J2" t="n">
-        <v>464626.8598624883</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="K2" t="n">
-        <v>464626.8598624882</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="L2" t="n">
-        <v>426246.3737136507</v>
+        <v>496352.2336087289</v>
       </c>
       <c r="M2" t="n">
         <v>426246.3737136506</v>
       </c>
       <c r="N2" t="n">
-        <v>426246.3737136506</v>
+        <v>426246.3737136509</v>
       </c>
       <c r="O2" t="n">
         <v>426246.3737136507</v>
@@ -26371,34 +26371,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>209066.8434513154</v>
+        <v>147775.3241762394</v>
       </c>
       <c r="E3" t="n">
-        <v>829128.4495314506</v>
+        <v>887045.8161875438</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>96558.96659736069</v>
+        <v>96558.96659736053</v>
       </c>
       <c r="J3" t="n">
-        <v>25882.16122066361</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>35508.2637395418</v>
       </c>
       <c r="M3" t="n">
-        <v>92048.15581552112</v>
+        <v>16135.84455931519</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>354753.502998367</v>
+      </c>
+      <c r="C4" t="n">
         <v>354753.5029983671</v>
       </c>
-      <c r="C4" t="n">
-        <v>354753.502998367</v>
-      </c>
       <c r="D4" t="n">
-        <v>293135.4964182983</v>
+        <v>311184.9926331007</v>
       </c>
       <c r="E4" t="n">
         <v>6720.683277029938</v>
       </c>
       <c r="F4" t="n">
-        <v>6720.683277029948</v>
+        <v>6720.683277029928</v>
       </c>
       <c r="G4" t="n">
-        <v>6720.683277029953</v>
+        <v>6720.683277029938</v>
       </c>
       <c r="H4" t="n">
         <v>6720.683277029938</v>
       </c>
       <c r="I4" t="n">
-        <v>35504.07070869966</v>
+        <v>35504.07070869963</v>
       </c>
       <c r="J4" t="n">
-        <v>22478.57290695776</v>
+        <v>35504.07070869964</v>
       </c>
       <c r="K4" t="n">
-        <v>22478.57290695776</v>
+        <v>35504.07070869964</v>
       </c>
       <c r="L4" t="n">
-        <v>6720.683277029938</v>
+        <v>35504.07070869964</v>
       </c>
       <c r="M4" t="n">
         <v>6720.683277029938</v>
@@ -26475,31 +26475,31 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>65970.82151210147</v>
+        <v>61316.81745260002</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>86392.81684017603</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>86392.81684017603</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2131.259114973152</v>
+        <v>-2131.259114973036</v>
       </c>
       <c r="C6" t="n">
-        <v>108263.1957599764</v>
+        <v>108263.1957599767</v>
       </c>
       <c r="D6" t="n">
-        <v>-55022.05521653827</v>
+        <v>-7126.028096762806</v>
       </c>
       <c r="E6" t="n">
-        <v>-483909.0996562233</v>
+        <v>-545302.6556103773</v>
       </c>
       <c r="F6" t="n">
-        <v>345219.3498752274</v>
+        <v>341743.1605771663</v>
       </c>
       <c r="G6" t="n">
-        <v>345219.3498752274</v>
+        <v>341743.1605771666</v>
       </c>
       <c r="H6" t="n">
-        <v>345219.349875227</v>
+        <v>341743.1605771663</v>
       </c>
       <c r="I6" t="n">
-        <v>267905.678048955</v>
+        <v>267233.723146697</v>
       </c>
       <c r="J6" t="n">
-        <v>329873.3088946908</v>
+        <v>294916.9910128078</v>
       </c>
       <c r="K6" t="n">
-        <v>355755.4701153544</v>
+        <v>363792.6897440577</v>
       </c>
       <c r="L6" t="n">
-        <v>345219.3498752274</v>
+        <v>328284.4260045158</v>
       </c>
       <c r="M6" t="n">
-        <v>253171.1940597062</v>
+        <v>325607.3160178511</v>
       </c>
       <c r="N6" t="n">
-        <v>345219.3498752274</v>
+        <v>341743.1605771665</v>
       </c>
       <c r="O6" t="n">
-        <v>345219.3498752275</v>
+        <v>341743.1605771664</v>
       </c>
       <c r="P6" t="n">
-        <v>345219.3498752273</v>
+        <v>341743.1605771663</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678932</v>
+        <v>23.01338268678931</v>
       </c>
       <c r="D3" t="n">
-        <v>195.0288793145596</v>
+        <v>144.6770062195578</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26795,40 +26795,40 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>462.0327622211195</v>
+        <v>403.5404394245668</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1030.192183671746</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="K4" t="n">
-        <v>1030.192183671746</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>1194.51293060493</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022928</v>
@@ -26965,19 +26965,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>172.0154966277703</v>
+        <v>121.6636235327685</v>
       </c>
       <c r="E3" t="n">
-        <v>894.7478212787385</v>
+        <v>945.0996943737405</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>198.7907282694529</v>
+        <v>140.2984054729002</v>
       </c>
       <c r="E4" t="n">
-        <v>369.3686931811731</v>
+        <v>427.861015977726</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>363.111475202638</v>
+        <v>363.1114752026374</v>
       </c>
       <c r="J4" t="n">
-        <v>98.92128701848162</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>140.2984054729002</v>
       </c>
       <c r="M4" t="n">
-        <v>369.3686931811733</v>
+        <v>64.74954077508863</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>198.7907282694529</v>
+        <v>140.2984054729002</v>
       </c>
       <c r="M4" t="n">
-        <v>369.3686931811731</v>
+        <v>427.861015977726</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>241.8886176226605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>143.6340117900448</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>398.2308159062208</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.995904704387</v>
       </c>
     </row>
     <row r="3">
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,16 +27469,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>75.86909370495989</v>
       </c>
       <c r="T3" t="n">
-        <v>156.4462604726899</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>7.41175199165292</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27563,7 +27563,7 @@
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>83.32258580077848</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27621,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E5" t="n">
-        <v>118.6883361205952</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>179.1095622899358</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>151.9681874521648</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.5607524111801</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y5" t="n">
         <v>122.995904704387</v>
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>107.2377136089398</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,7 +27712,7 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
         <v>87.69233988828964</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
@@ -27751,19 +27751,19 @@
         <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>163.8876395338781</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.6879292296162</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206232</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,25 +27855,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>130.2243073973413</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>3.335606317144595</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>331.4452965468014</v>
+        <v>333.5183261762855</v>
       </c>
       <c r="I8" t="n">
-        <v>180.2493534105082</v>
+        <v>188.0531346667697</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>100.6189356688152</v>
+        <v>113.3341752599867</v>
       </c>
       <c r="S8" t="n">
-        <v>191.1538561696402</v>
+        <v>195.766492584323</v>
       </c>
       <c r="T8" t="n">
-        <v>219.663733306043</v>
+        <v>220.5498250627198</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2829300521775</v>
+        <v>251.2991236194041</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>264.1990431524622</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27943,16 +27943,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.9240210831755</v>
+        <v>137.0323251120969</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>109.2299841638977</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>78.6823451266648</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,25 +27979,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>80.83662943524632</v>
       </c>
       <c r="S9" t="n">
-        <v>163.8912154066948</v>
+        <v>165.9029152421413</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.9104063484464</v>
       </c>
       <c r="U9" t="n">
-        <v>223.0907308351944</v>
+        <v>93.51848078267213</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>109.0029891639209</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.639287936744</v>
+        <v>167.7300863964235</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>159.907596899526</v>
       </c>
       <c r="I10" t="n">
-        <v>144.874154717872</v>
+        <v>147.6047120325977</v>
       </c>
       <c r="J10" t="n">
-        <v>68.49459660143786</v>
+        <v>74.91404770077932</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>56.71268247519589</v>
+        <v>64.31581531254116</v>
       </c>
       <c r="R10" t="n">
-        <v>161.4800661789758</v>
+        <v>165.5626951023837</v>
       </c>
       <c r="S10" t="n">
-        <v>217.8875757149065</v>
+        <v>219.4699452349576</v>
       </c>
       <c r="T10" t="n">
-        <v>226.4429078991365</v>
+        <v>226.8308649541308</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2998461880337</v>
+        <v>286.304798831289</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>82.84497965899456</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31041,19 +31041,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367561</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887681</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760345</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324493</v>
+        <v>11.76839629324494</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31071,10 +31071,10 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544806</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679518</v>
       </c>
       <c r="S2" t="n">
         <v>2.10821088633251</v>
@@ -31083,7 +31083,7 @@
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294047</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31129,10 +31129,10 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750213</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31141,7 +31141,7 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418792</v>
+        <v>12.87425075418793</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
@@ -31150,19 +31150,19 @@
         <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210532</v>
+        <v>6.318693299210533</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523842</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564529</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,10 +31199,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994796</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.3689686601259012</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31211,37 +31211,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166679</v>
+        <v>4.82149230716668</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471355</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988659</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150828</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131886</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705188</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750019</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815346</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0925161113036756</v>
+        <v>0.09251611130367554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887678</v>
+        <v>0.9474806248887675</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034957</v>
+        <v>3.566727381034955</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760343</v>
+        <v>7.852189301760339</v>
       </c>
       <c r="K5" t="n">
         <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>14.5997362345548</v>
+        <v>14.59973623455479</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895154</v>
+        <v>16.24501962895153</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019311</v>
+        <v>16.5078810301931</v>
       </c>
       <c r="O5" t="n">
         <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060769</v>
+        <v>13.30393245060768</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>9.990699214544799</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679517</v>
+        <v>5.811515176679515</v>
       </c>
       <c r="S5" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318401</v>
+        <v>0.4049892772318399</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294046</v>
+        <v>0.007401288904294042</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,25 +31357,25 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.04950048351498078</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104726</v>
+        <v>0.4780704592104724</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125436</v>
+        <v>1.704292963125435</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246498</v>
+        <v>4.676710155246496</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750212</v>
+        <v>7.993242550750209</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688213</v>
+        <v>10.74790103688212</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430018</v>
+        <v>12.54229356430017</v>
       </c>
       <c r="N6" t="n">
         <v>12.87425075418792</v>
@@ -31384,22 +31384,22 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522953</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210532</v>
+        <v>6.31869329921053</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605564</v>
+        <v>3.073372125605562</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523841</v>
+        <v>0.9194497705523836</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467866</v>
+        <v>0.1995216857467865</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564528</v>
+        <v>0.003256610757564526</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994795</v>
+        <v>0.04149954254994793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259011</v>
+        <v>0.368968660125901</v>
       </c>
       <c r="I7" t="n">
         <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>2.93401765828132</v>
+        <v>2.934017658281319</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166679</v>
+        <v>4.821492307166677</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471354</v>
+        <v>6.169850171471351</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988658</v>
+        <v>6.505241928988656</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847948</v>
+        <v>6.350561815847946</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150827</v>
+        <v>5.865771705150824</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131885</v>
+        <v>5.019181037131882</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705187</v>
+        <v>3.475020785705186</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473114</v>
+        <v>1.865970340473113</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750018</v>
+        <v>0.7232238460750015</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815345</v>
+        <v>0.002263611411815344</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7840356957369222</v>
+        <v>0.581616105405257</v>
       </c>
       <c r="H8" t="n">
-        <v>8.029505568965757</v>
+        <v>5.95647593948159</v>
       </c>
       <c r="I8" t="n">
-        <v>30.22653615989773</v>
+        <v>22.42275490363619</v>
       </c>
       <c r="J8" t="n">
-        <v>66.54404963105166</v>
+        <v>49.36393992613948</v>
       </c>
       <c r="K8" t="n">
-        <v>99.7322806315956</v>
+        <v>73.98374966794402</v>
       </c>
       <c r="L8" t="n">
-        <v>123.7267130550045</v>
+        <v>91.78338355374018</v>
       </c>
       <c r="M8" t="n">
-        <v>137.6698078590659</v>
+        <v>102.1266989682409</v>
       </c>
       <c r="N8" t="n">
-        <v>139.8974492795785</v>
+        <v>103.7792157277236</v>
       </c>
       <c r="O8" t="n">
-        <v>132.1011943300945</v>
+        <v>97.99577057960008</v>
       </c>
       <c r="P8" t="n">
-        <v>112.7453130915892</v>
+        <v>83.63712297740778</v>
       </c>
       <c r="Q8" t="n">
-        <v>84.66703473801063</v>
+        <v>62.807996202582</v>
       </c>
       <c r="R8" t="n">
-        <v>49.25018227233448</v>
+        <v>36.53494268116301</v>
       </c>
       <c r="S8" t="n">
-        <v>17.86621341660513</v>
+        <v>13.25357700192231</v>
       </c>
       <c r="T8" t="n">
-        <v>3.432116258088379</v>
+        <v>2.546024501411514</v>
       </c>
       <c r="U8" t="n">
-        <v>0.06272285565895377</v>
+        <v>0.04652928843242055</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4194960800350904</v>
+        <v>0.3111920511137659</v>
       </c>
       <c r="H9" t="n">
-        <v>4.051448983496795</v>
+        <v>3.005460072598739</v>
       </c>
       <c r="I9" t="n">
-        <v>14.44317643980465</v>
+        <v>10.71428772475027</v>
       </c>
       <c r="J9" t="n">
-        <v>39.63318008787668</v>
+        <v>29.40082444316505</v>
       </c>
       <c r="K9" t="n">
-        <v>67.73941745022773</v>
+        <v>50.25069186778736</v>
       </c>
       <c r="L9" t="n">
-        <v>91.08400632516295</v>
+        <v>67.568256536785</v>
       </c>
       <c r="M9" t="n">
-        <v>106.290739226435</v>
+        <v>78.84896838965899</v>
       </c>
       <c r="N9" t="n">
-        <v>109.1039388157931</v>
+        <v>80.93586596050527</v>
       </c>
       <c r="O9" t="n">
-        <v>99.80878883185767</v>
+        <v>74.04050524898445</v>
       </c>
       <c r="P9" t="n">
-        <v>80.10535233582354</v>
+        <v>59.42403298855762</v>
       </c>
       <c r="Q9" t="n">
-        <v>53.54830663746172</v>
+        <v>39.72339234918878</v>
       </c>
       <c r="R9" t="n">
-        <v>26.04555486393308</v>
+        <v>19.3212047173968</v>
       </c>
       <c r="S9" t="n">
-        <v>7.791955697143012</v>
+        <v>5.78025586169648</v>
       </c>
       <c r="T9" t="n">
-        <v>1.690863585755473</v>
+        <v>1.254322346375222</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02759842631809806</v>
+        <v>0.0204731612574846</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3516914217147795</v>
+        <v>0.2608929620352681</v>
       </c>
       <c r="H10" t="n">
-        <v>3.126856458518678</v>
+        <v>2.319575607913567</v>
       </c>
       <c r="I10" t="n">
-        <v>10.57632020938628</v>
+        <v>7.845762894660611</v>
       </c>
       <c r="J10" t="n">
-        <v>24.86458351523491</v>
+        <v>18.44513241589345</v>
       </c>
       <c r="K10" t="n">
-        <v>40.86014881377164</v>
+        <v>30.31101868009751</v>
       </c>
       <c r="L10" t="n">
-        <v>52.28692282475914</v>
+        <v>38.78766819204341</v>
       </c>
       <c r="M10" t="n">
-        <v>55.12922895116311</v>
+        <v>40.89615767612843</v>
       </c>
       <c r="N10" t="n">
-        <v>53.81837910658989</v>
+        <v>39.92373845399701</v>
       </c>
       <c r="O10" t="n">
-        <v>49.70998386201267</v>
+        <v>36.87603430658501</v>
       </c>
       <c r="P10" t="n">
-        <v>42.53547885903113</v>
+        <v>31.55381788106551</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.44936077649849</v>
+        <v>21.84622793915323</v>
       </c>
       <c r="R10" t="n">
-        <v>15.81332519819363</v>
+        <v>11.73069627478578</v>
       </c>
       <c r="S10" t="n">
-        <v>6.129022322065746</v>
+        <v>4.546652802014625</v>
       </c>
       <c r="T10" t="n">
-        <v>1.502681529144966</v>
+        <v>1.114724474150691</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01918316845716981</v>
+        <v>0.01423052520192373</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34780,25 +34780,25 @@
         <v>3.930118828988642</v>
       </c>
       <c r="K3" t="n">
-        <v>75.14179310326402</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>106.945877257382</v>
       </c>
       <c r="P3" t="n">
         <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025373</v>
+        <v>2.297740302025374</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455863</v>
       </c>
       <c r="O5" t="n">
         <v>166.2898937894758</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988642</v>
+        <v>3.93011882898864</v>
       </c>
       <c r="K6" t="n">
         <v>134.6170405889698</v>
@@ -35023,19 +35023,19 @@
         <v>243.0338665604671</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>203.5682515976195</v>
+        <v>127.3525795169227</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P6" t="n">
         <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35102,7 +35102,7 @@
         <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082925</v>
+        <v>46.08911889082924</v>
       </c>
       <c r="N7" t="n">
         <v>50.48273419507654</v>
@@ -35111,7 +35111,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025373</v>
+        <v>2.29774030202537</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>54.59476027643915</v>
+        <v>37.41465057152696</v>
       </c>
       <c r="K8" t="n">
-        <v>203.7878421577798</v>
+        <v>178.0393111941282</v>
       </c>
       <c r="L8" t="n">
-        <v>305.6215126354676</v>
+        <v>273.6781831342034</v>
       </c>
       <c r="M8" t="n">
-        <v>356.8371081246257</v>
+        <v>321.2939992338007</v>
       </c>
       <c r="N8" t="n">
-        <v>347.8313100949717</v>
+        <v>311.7130765431169</v>
       </c>
       <c r="O8" t="n">
-        <v>282.8031641711531</v>
+        <v>248.6977404206587</v>
       </c>
       <c r="P8" t="n">
-        <v>203.3110255078023</v>
+        <v>174.2028353936209</v>
       </c>
       <c r="Q8" t="n">
-        <v>74.67633552346582</v>
+        <v>52.81729698803719</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>38.88658876161882</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>323.3699718487479</v>
+        <v>222.6776815414516</v>
       </c>
       <c r="M9" t="n">
-        <v>270.789499292463</v>
+        <v>402.4199982176406</v>
       </c>
       <c r="N9" t="n">
-        <v>457.1046010760133</v>
+        <v>403.5404394245668</v>
       </c>
       <c r="O9" t="n">
-        <v>351.0748636641428</v>
+        <v>325.3065800812695</v>
       </c>
       <c r="P9" t="n">
-        <v>264.5937135614305</v>
+        <v>243.9123942141646</v>
       </c>
       <c r="Q9" t="n">
-        <v>123.6438202872893</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18.59065698788879</v>
+        <v>8.041526854214656</v>
       </c>
       <c r="L10" t="n">
-        <v>79.87694808507527</v>
+        <v>66.37769345235955</v>
       </c>
       <c r="M10" t="n">
-        <v>94.71310591300369</v>
+        <v>80.48003463796903</v>
       </c>
       <c r="N10" t="n">
-        <v>97.95055148581848</v>
+        <v>84.0559108332256</v>
       </c>
       <c r="O10" t="n">
-        <v>74.29511177605235</v>
+        <v>61.46116222062468</v>
       </c>
       <c r="P10" t="n">
-        <v>39.81403812392462</v>
+        <v>28.832377145959</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282456</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>236.1113383079613</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>625.5308458386829</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>837.4077714107342</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>326.2647286489537</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,19 +37071,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>507.3053774831311</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
